--- a/Vorlage.xlsx
+++ b/Vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8c46ab08edb63fe/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{C3D1E63E-2D89-4322-97DC-AA130498D9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E89BD10-73F0-4E94-AFBC-D5BA89EF9FFD}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{C3D1E63E-2D89-4322-97DC-AA130498D9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA296EB4-19D9-46E8-99C1-3312A289BF6F}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{1F0CD6B4-CE53-4C1E-B505-676BF55D7FF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Stundennachweis</t>
   </si>
@@ -135,6 +135,48 @@
   </si>
   <si>
     <t>Stunden/Woche:</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Spalte2</t>
+  </si>
+  <si>
+    <t>Spalte3</t>
+  </si>
+  <si>
+    <t>Spalte4</t>
+  </si>
+  <si>
+    <t>Spalte5</t>
+  </si>
+  <si>
+    <t>Spalte6</t>
+  </si>
+  <si>
+    <t>Spalte7</t>
+  </si>
+  <si>
+    <t>Spalte8</t>
+  </si>
+  <si>
+    <t>Spalte9</t>
+  </si>
+  <si>
+    <t>Spalte10</t>
+  </si>
+  <si>
+    <t>Spalte11</t>
+  </si>
+  <si>
+    <t>Spalte12</t>
+  </si>
+  <si>
+    <t>Spalte13</t>
+  </si>
+  <si>
+    <t>Spalte14</t>
   </si>
 </sst>
 </file>
@@ -146,7 +188,7 @@
     <numFmt numFmtId="165" formatCode="mmm\ yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m/yy\ h:mm"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +267,20 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -490,15 +546,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -507,18 +559,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -743,14 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -822,24 +854,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
@@ -848,91 +862,12 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -961,43 +896,240 @@
       <alignment horizontal="left" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="49"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <name val="MS Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="d/m/yy\ h:mm"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <name val="MS Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <name val="MS Sans Serif"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1008,6 +1140,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DAABFD8E-7624-4E6D-8AFA-6C5A37DFE1A6}" name="Tabelle1" displayName="Tabelle1" ref="B2:O53" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B2:O53" xr:uid="{DAABFD8E-7624-4E6D-8AFA-6C5A37DFE1A6}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{51E3CF19-9D8B-492F-AFEC-0C7E183FEE4D}" name="Spalte1"/>
+    <tableColumn id="2" xr3:uid="{1721B01F-B454-4895-B90D-058EFEA6B1CD}" name="Spalte2"/>
+    <tableColumn id="3" xr3:uid="{9989FA57-5E4C-4797-8C97-3785348167E5}" name="Spalte3"/>
+    <tableColumn id="4" xr3:uid="{BEB0696A-29AF-42ED-AF34-8508BADA19BB}" name="Spalte4"/>
+    <tableColumn id="5" xr3:uid="{399BB016-62FB-4A64-8821-1E96C3E2AA63}" name="Spalte5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2E0ACC07-8587-47D4-B19D-4116DC6D7EE2}" name="Spalte6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{88DA30E7-883C-4C4B-A73D-F3D37377558D}" name="Spalte7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{788FC17B-AEB6-4D3D-B630-B53363027CAF}" name="Spalte8"/>
+    <tableColumn id="9" xr3:uid="{EE4BB8DE-B03E-4256-84C6-70066FE2E8BA}" name="Spalte9"/>
+    <tableColumn id="10" xr3:uid="{BA144D97-9285-4005-BE15-A868C10C363B}" name="Spalte10"/>
+    <tableColumn id="11" xr3:uid="{F85611B8-A756-41D9-88AA-6DA8E2A39097}" name="Spalte11"/>
+    <tableColumn id="12" xr3:uid="{E9DED1DD-8148-4854-ACB4-DBFA9F5EC790}" name="Spalte12"/>
+    <tableColumn id="13" xr3:uid="{EB8861A3-348C-4947-AE6B-C0312E7A5408}" name="Spalte13"/>
+    <tableColumn id="14" xr3:uid="{ED86B99F-2B20-4616-8F8F-CEB23407630F}" name="Spalte14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1327,951 +1486,981 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19F480E-15AB-4132-A5DA-017D775B059B}">
-  <dimension ref="B2:O51"/>
+  <dimension ref="B2:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="21.9" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="101"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18" t="s">
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="19" t="s">
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="123" t="s">
+      <c r="M5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="33" t="s">
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M7" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="23"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="37"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="33"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C10" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47" t="s">
+      <c r="G10" s="42"/>
+      <c r="H10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="49" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52" t="s">
+      <c r="M10" s="46"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61"/>
-    </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F12" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G12" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67" t="s">
+      <c r="H12" s="62"/>
+      <c r="I12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69" t="s">
+      <c r="J12" s="59"/>
+      <c r="K12" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="70" t="s">
+      <c r="L12" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="66" t="s">
+      <c r="M12" s="46"/>
+      <c r="N12" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="62"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
+      <c r="O12" s="58"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="133"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="132"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="133"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="132"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="135"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="133"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="132"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="135"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="133"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="132"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="135"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="133"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="132"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="135"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="133"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="132"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="135"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="133"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="132"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="135"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="133"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="132"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="135"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="133"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="132"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="135"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="133"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="132"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="135"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="133"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="132"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="135"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="133"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="132"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="135"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B25" s="133"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="132"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="135"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="133"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="132"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="135"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="133"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="132"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="135"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="133"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="132"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="135"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="133"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="132"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="135"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="133"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="132"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="135"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="133"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="132"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="135"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="133"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="132"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="135"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B33" s="133"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="132"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="135"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" s="133"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="131"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="131"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="132"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="134"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="135"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B35" s="133"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="132"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="135"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="133"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="132"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="135"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B37" s="133"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="130"/>
-      <c r="O37" s="132"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="135"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" s="133"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="132"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="135"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B39" s="133"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="131"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="130"/>
-      <c r="O39" s="132"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="135"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B40" s="133"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="132"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="134"/>
+      <c r="O40" s="135"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B41" s="133"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="131"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="132"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="135"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="133"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="131"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="130"/>
-      <c r="O42" s="132"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="135"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" s="133"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="131"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="131"/>
-      <c r="N43" s="130"/>
-      <c r="O43" s="132"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="134"/>
+      <c r="O43" s="135"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="136"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="134"/>
+      <c r="O44" s="135"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B45" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="79"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" s="80" t="s">
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="73"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B46" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="80" t="s">
+      <c r="C46" s="75"/>
+      <c r="D46" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="83" t="s">
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="121"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="84" t="s">
+      <c r="J46" s="87"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="M45" s="85"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="88"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="89" t="s">
+      <c r="M46" s="79"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="82"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="90"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="120" t="s">
+      <c r="E47" s="107"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="121"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="87" t="s">
+      <c r="J47" s="87"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="M46" s="94"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="97">
+      <c r="M47" s="83"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="85">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="80"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="100">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B48" s="111"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="125">
         <v>0</v>
       </c>
-      <c r="L47" s="101" t="s">
+      <c r="L48" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="M47" s="102"/>
-      <c r="N47" s="103"/>
-      <c r="O47" s="99">
+      <c r="M48" s="103"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="86">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="128"/>
+      <c r="M49" s="129">
+        <v>0</v>
+      </c>
+      <c r="N49" s="130">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G48" s="99"/>
-      <c r="H48" s="104">
-        <v>0.87500000000000011</v>
-      </c>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105">
-        <f>INT(J49+K48)</f>
+      <c r="O49" s="113"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B50" s="117">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C50" s="118">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D50" s="118">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E50" s="118">
         <v>0</v>
       </c>
-      <c r="K48" s="96">
+      <c r="F50" s="113"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="119"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="113">
         <v>0</v>
       </c>
-      <c r="L48" s="106" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" s="107">
-        <v>0</v>
-      </c>
-      <c r="N48" s="108">
+      <c r="N50" s="113">
         <v>0.29166666666666669</v>
       </c>
-      <c r="O48" s="99">
+      <c r="O50" s="118">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="109">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C49" s="110">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D49" s="110">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E49" s="110">
-        <v>0</v>
-      </c>
-      <c r="F49" s="99">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="G49" s="99"/>
-      <c r="H49" s="104">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111">
-        <f>K49/(1/3)</f>
-        <v>0.87500000000000011</v>
-      </c>
-      <c r="K49" s="110">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="L49" s="100">
-        <v>0</v>
-      </c>
-      <c r="M49" s="99">
-        <v>0</v>
-      </c>
-      <c r="N49" s="99">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="O49" s="110">
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="82" t="s">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B51" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99">
-        <v>0</v>
-      </c>
-      <c r="G50" s="99"/>
-      <c r="H50" s="104">
-        <v>0</v>
-      </c>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="112" t="s">
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="113"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="98"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B51" s="115" t="s">
+      <c r="L51" s="131"/>
+      <c r="M51" s="112"/>
+      <c r="N51" s="132"/>
+      <c r="O51" s="112"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B52" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="117"/>
-      <c r="K51" s="118" t="s">
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="L51" s="116"/>
-      <c r="M51" s="116"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="90"/>
+      <c r="L52" s="121"/>
+      <c r="M52" s="121"/>
+      <c r="N52" s="133"/>
+      <c r="O52" s="107"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B53" s="123"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="123"/>
+      <c r="L53" s="123"/>
+      <c r="M53" s="123"/>
+      <c r="N53" s="123"/>
+      <c r="O53" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D4:E4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>